--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H2">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="N2">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="O2">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="P2">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="Q2">
-        <v>80.32861389631611</v>
+        <v>26.518856949726</v>
       </c>
       <c r="R2">
-        <v>722.9575250668451</v>
+        <v>238.669712547534</v>
       </c>
       <c r="S2">
-        <v>0.1140457422033697</v>
+        <v>0.0422275846645157</v>
       </c>
       <c r="T2">
-        <v>0.1140457422033697</v>
+        <v>0.04222758466451572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H3">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>100.286516</v>
       </c>
       <c r="O3">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="P3">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="Q3">
-        <v>181.3164052007978</v>
+        <v>79.23590828785868</v>
       </c>
       <c r="R3">
-        <v>1631.84764680718</v>
+        <v>713.1231745907281</v>
       </c>
       <c r="S3">
-        <v>0.2574221438883838</v>
+        <v>0.1261721435444421</v>
       </c>
       <c r="T3">
-        <v>0.2574221438883838</v>
+        <v>0.1261721435444421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H4">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="N4">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="O4">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="P4">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="Q4">
-        <v>61.01339046405276</v>
+        <v>75.33246678648067</v>
       </c>
       <c r="R4">
-        <v>549.1205141764749</v>
+        <v>677.992201078326</v>
       </c>
       <c r="S4">
-        <v>0.08662314787104783</v>
+        <v>0.1199564568429032</v>
       </c>
       <c r="T4">
-        <v>0.08662314787104783</v>
+        <v>0.1199564568429032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H5">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="N5">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="O5">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="P5">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="Q5">
-        <v>13.61362691171555</v>
+        <v>8.997957248423333</v>
       </c>
       <c r="R5">
-        <v>122.52264220544</v>
+        <v>80.98161523581</v>
       </c>
       <c r="S5">
-        <v>0.01932780997852585</v>
+        <v>0.01432799317994039</v>
       </c>
       <c r="T5">
-        <v>0.01932780997852585</v>
+        <v>0.0143279931799404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="N6">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="O6">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="P6">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="Q6">
-        <v>23.45166697874522</v>
+        <v>17.716311405011</v>
       </c>
       <c r="R6">
-        <v>211.065002808707</v>
+        <v>159.446802645099</v>
       </c>
       <c r="S6">
-        <v>0.03329526848240453</v>
+        <v>0.02821075739487168</v>
       </c>
       <c r="T6">
-        <v>0.03329526848240454</v>
+        <v>0.02821075739487169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>100.286516</v>
       </c>
       <c r="O7">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="P7">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="Q7">
         <v>52.93471088696756</v>
@@ -883,10 +883,10 @@
         <v>476.412397982708</v>
       </c>
       <c r="S7">
-        <v>0.07515352373958825</v>
+        <v>0.08429115138366397</v>
       </c>
       <c r="T7">
-        <v>0.07515352373958827</v>
+        <v>0.08429115138366398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="N8">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="O8">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="P8">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="Q8">
-        <v>17.81265286432055</v>
+        <v>50.32695953023455</v>
       </c>
       <c r="R8">
-        <v>160.3138757788849</v>
+        <v>452.942635772111</v>
       </c>
       <c r="S8">
-        <v>0.02528933487069145</v>
+        <v>0.08013867070136266</v>
       </c>
       <c r="T8">
-        <v>0.02528933487069146</v>
+        <v>0.0801386707013627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="N9">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="O9">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="P9">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="Q9">
-        <v>3.974452305607111</v>
+        <v>6.011217335809444</v>
       </c>
       <c r="R9">
-        <v>35.770070750464</v>
+        <v>54.10095602228499</v>
       </c>
       <c r="S9">
-        <v>0.005642688714010588</v>
+        <v>0.009572026029097777</v>
       </c>
       <c r="T9">
-        <v>0.005642688714010589</v>
+        <v>0.009572026029097781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H10">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="N10">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="O10">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="P10">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="Q10">
-        <v>54.61126192490545</v>
+        <v>25.58373064817</v>
       </c>
       <c r="R10">
-        <v>491.5013573241491</v>
+        <v>230.25357583353</v>
       </c>
       <c r="S10">
-        <v>0.07753379022483162</v>
+        <v>0.04073852632592168</v>
       </c>
       <c r="T10">
-        <v>0.07753379022483163</v>
+        <v>0.04073852632592168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H11">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>100.286516</v>
       </c>
       <c r="O11">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="P11">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="Q11">
-        <v>123.2676280021951</v>
+        <v>76.44183680852889</v>
       </c>
       <c r="R11">
-        <v>1109.408652019756</v>
+        <v>687.9765312767599</v>
       </c>
       <c r="S11">
-        <v>0.1750079759038881</v>
+        <v>0.1217229740279812</v>
       </c>
       <c r="T11">
-        <v>0.1750079759038882</v>
+        <v>0.1217229740279812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H12">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="N12">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="O12">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="P12">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="Q12">
-        <v>41.4798424364661</v>
+        <v>72.67604116501889</v>
       </c>
       <c r="R12">
-        <v>373.3185819281949</v>
+        <v>654.0843704851699</v>
       </c>
       <c r="S12">
-        <v>0.05889058938887722</v>
+        <v>0.1157264691760921</v>
       </c>
       <c r="T12">
-        <v>0.05889058938887722</v>
+        <v>0.1157264691760922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H13">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="N13">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="O13">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="P13">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="Q13">
-        <v>9.255199473294221</v>
+        <v>8.68066504766111</v>
       </c>
       <c r="R13">
-        <v>83.29679525964801</v>
+        <v>78.12598542894997</v>
       </c>
       <c r="S13">
-        <v>0.01313997642900299</v>
+        <v>0.01382274956041041</v>
       </c>
       <c r="T13">
-        <v>0.013139976429003</v>
+        <v>0.01382274956041041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H14">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="N14">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="O14">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="P14">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="Q14">
-        <v>9.864517713195891</v>
+        <v>17.793400736848</v>
       </c>
       <c r="R14">
-        <v>88.78065941876301</v>
+        <v>160.140606631632</v>
       </c>
       <c r="S14">
-        <v>0.01400504987589865</v>
+        <v>0.02833351141451322</v>
       </c>
       <c r="T14">
-        <v>0.01400504987589865</v>
+        <v>0.02833351141451323</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H15">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>100.286516</v>
       </c>
       <c r="O15">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="P15">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="Q15">
-        <v>22.26602457133023</v>
+        <v>53.16504672832712</v>
       </c>
       <c r="R15">
-        <v>200.394221141972</v>
+        <v>478.485420554944</v>
       </c>
       <c r="S15">
-        <v>0.031611964591266</v>
+        <v>0.08465792911698493</v>
       </c>
       <c r="T15">
-        <v>0.031611964591266</v>
+        <v>0.08465792911698494</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H16">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="N16">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="O16">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="P16">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="Q16">
-        <v>7.492568859107221</v>
+        <v>50.54594821218311</v>
       </c>
       <c r="R16">
-        <v>67.43311973196499</v>
+        <v>454.913533909648</v>
       </c>
       <c r="S16">
-        <v>0.01063749933055829</v>
+        <v>0.0804873796643879</v>
       </c>
       <c r="T16">
-        <v>0.01063749933055829</v>
+        <v>0.08048737966438792</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H17">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="N17">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="O17">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="P17">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="Q17">
-        <v>1.671781166108445</v>
+        <v>6.037374063208889</v>
       </c>
       <c r="R17">
-        <v>15.046030494976</v>
+        <v>54.33636656888</v>
       </c>
       <c r="S17">
-        <v>0.002373494507655088</v>
+        <v>0.009613676972911106</v>
       </c>
       <c r="T17">
-        <v>0.002373494507655088</v>
+        <v>0.009613676972911107</v>
       </c>
     </row>
   </sheetData>
